--- a/data/pca/factorExposure/factorExposure_2019-05-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1202566243573629</v>
+        <v>0.07747851198462342</v>
       </c>
       <c r="C2">
-        <v>0.01858183925257121</v>
+        <v>-0.01293532830942647</v>
       </c>
       <c r="D2">
-        <v>0.01115971108295014</v>
+        <v>0.03481940930582449</v>
       </c>
       <c r="E2">
-        <v>0.1131396501228503</v>
+        <v>-0.1111373322108447</v>
       </c>
       <c r="F2">
-        <v>0.08384287707669515</v>
+        <v>0.08993791623425787</v>
       </c>
       <c r="G2">
-        <v>-0.1245849417804895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.08149187032040177</v>
+      </c>
+      <c r="H2">
+        <v>-0.08977423069603994</v>
+      </c>
+      <c r="I2">
+        <v>-0.0543213147909968</v>
+      </c>
+      <c r="J2">
+        <v>0.003761750196641276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2101094707316202</v>
+        <v>0.1631186592674668</v>
       </c>
       <c r="C3">
-        <v>-0.07881340358222735</v>
+        <v>-0.08018646261027074</v>
       </c>
       <c r="D3">
-        <v>-0.09537890686388234</v>
+        <v>-0.05235568540255365</v>
       </c>
       <c r="E3">
-        <v>0.3211561083441936</v>
+        <v>-0.2414823916091866</v>
       </c>
       <c r="F3">
-        <v>-0.005938093899167472</v>
+        <v>0.3003306977316317</v>
       </c>
       <c r="G3">
-        <v>-0.3371112467851114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.01255013158834466</v>
+      </c>
+      <c r="H3">
+        <v>-0.2570041972086735</v>
+      </c>
+      <c r="I3">
+        <v>-0.1376177075177211</v>
+      </c>
+      <c r="J3">
+        <v>-0.2566892808826272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09946934384353998</v>
+        <v>0.07412518955831308</v>
       </c>
       <c r="C4">
-        <v>-0.02371708911612026</v>
+        <v>-0.03377566540669646</v>
       </c>
       <c r="D4">
-        <v>-0.004846684731724372</v>
+        <v>0.01983126087752934</v>
       </c>
       <c r="E4">
-        <v>0.08563870229556093</v>
+        <v>-0.0362561577938925</v>
       </c>
       <c r="F4">
-        <v>0.04491930817739975</v>
+        <v>0.09209952794455517</v>
       </c>
       <c r="G4">
-        <v>-0.03395230155965247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03617527558646519</v>
+      </c>
+      <c r="H4">
+        <v>-0.03836339455117307</v>
+      </c>
+      <c r="I4">
+        <v>-0.03124121685617465</v>
+      </c>
+      <c r="J4">
+        <v>-0.04267003002947099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01238567740934996</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.002377130057587893</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-4.735311392640852e-05</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.001080961478248465</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.009707459651708871</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01390569538978284</v>
+      </c>
+      <c r="H6">
+        <v>-0.004129562205254724</v>
+      </c>
+      <c r="I6">
+        <v>-0.002137548550774581</v>
+      </c>
+      <c r="J6">
+        <v>0.002083908500540931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04464743067477585</v>
+        <v>0.03490717165983837</v>
       </c>
       <c r="C7">
-        <v>-0.004524629535987466</v>
+        <v>-0.01809339284388311</v>
       </c>
       <c r="D7">
-        <v>0.02296228218986368</v>
+        <v>0.01736845218630518</v>
       </c>
       <c r="E7">
-        <v>0.07964744927142516</v>
+        <v>-0.03305052006158357</v>
       </c>
       <c r="F7">
-        <v>-0.04089619689907146</v>
+        <v>0.05307712494108074</v>
       </c>
       <c r="G7">
-        <v>-0.01937692912556263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01397701760450784</v>
+      </c>
+      <c r="H7">
+        <v>-0.04356976955746649</v>
+      </c>
+      <c r="I7">
+        <v>-0.006140186927559554</v>
+      </c>
+      <c r="J7">
+        <v>-0.0165937097420238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04381446686708322</v>
+        <v>0.03307767202463664</v>
       </c>
       <c r="C8">
-        <v>-0.03565473730755685</v>
+        <v>-0.03689023839614559</v>
       </c>
       <c r="D8">
-        <v>-0.0142619166911184</v>
+        <v>0.003602891325088235</v>
       </c>
       <c r="E8">
-        <v>0.07254961185507344</v>
+        <v>-0.03576769368217043</v>
       </c>
       <c r="F8">
-        <v>-0.007123705105960912</v>
+        <v>0.08098353190873313</v>
       </c>
       <c r="G8">
-        <v>-0.04983782761467464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.005447875179831482</v>
+      </c>
+      <c r="H8">
+        <v>-0.05131207556056817</v>
+      </c>
+      <c r="I8">
+        <v>-0.03479765167109494</v>
+      </c>
+      <c r="J8">
+        <v>-0.02659446061880014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08828315582177118</v>
+        <v>0.06396705815781971</v>
       </c>
       <c r="C9">
-        <v>-0.02353529970177841</v>
+        <v>-0.03348459582079862</v>
       </c>
       <c r="D9">
-        <v>0.01001084736048084</v>
+        <v>0.02082696334334555</v>
       </c>
       <c r="E9">
-        <v>0.07777881755305315</v>
+        <v>-0.03032600946172418</v>
       </c>
       <c r="F9">
-        <v>0.02715907302564972</v>
+        <v>0.09365194884457226</v>
       </c>
       <c r="G9">
-        <v>-0.0306411999002511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02670600743851376</v>
+      </c>
+      <c r="H9">
+        <v>-0.03542226363031794</v>
+      </c>
+      <c r="I9">
+        <v>-0.01571813089044889</v>
+      </c>
+      <c r="J9">
+        <v>-0.006247696189457054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.01381370440510613</v>
+        <v>0.01198873473516253</v>
       </c>
       <c r="C10">
-        <v>0.1633390049799827</v>
+        <v>0.1617177390395277</v>
       </c>
       <c r="D10">
-        <v>-0.01024620380752974</v>
+        <v>-0.004881766045836918</v>
       </c>
       <c r="E10">
-        <v>0.04335825558459702</v>
+        <v>-0.04321943350455396</v>
       </c>
       <c r="F10">
-        <v>-0.0002330339461548193</v>
+        <v>0.02916678655173516</v>
       </c>
       <c r="G10">
-        <v>0.01218693569681389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01710803302128746</v>
+      </c>
+      <c r="H10">
+        <v>0.02044465592939339</v>
+      </c>
+      <c r="I10">
+        <v>-0.1179732788086</v>
+      </c>
+      <c r="J10">
+        <v>-0.02559040034259078</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05893455087396789</v>
+        <v>0.04991902337177379</v>
       </c>
       <c r="C11">
-        <v>-0.0007466356595169876</v>
+        <v>-0.01942618123698594</v>
       </c>
       <c r="D11">
-        <v>-0.01477177931086958</v>
+        <v>0.004748996208918535</v>
       </c>
       <c r="E11">
-        <v>0.03979057974864147</v>
+        <v>-0.03877575848863211</v>
       </c>
       <c r="F11">
-        <v>0.003268004457391052</v>
+        <v>0.02905287007306018</v>
       </c>
       <c r="G11">
-        <v>0.005533566527900447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.004490441722355575</v>
+      </c>
+      <c r="H11">
+        <v>-0.01976776635254959</v>
+      </c>
+      <c r="I11">
+        <v>0.01097565008763263</v>
+      </c>
+      <c r="J11">
+        <v>-0.00409548675399221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04964442362141743</v>
+        <v>0.04797203909756179</v>
       </c>
       <c r="C12">
-        <v>-0.007259250536635983</v>
+        <v>-0.02076048940186133</v>
       </c>
       <c r="D12">
-        <v>-0.008809163745411583</v>
+        <v>0.006367726440955795</v>
       </c>
       <c r="E12">
-        <v>0.026170032850659</v>
+        <v>-0.01217963655175132</v>
       </c>
       <c r="F12">
-        <v>-0.001535436574007675</v>
+        <v>0.02620148728045607</v>
       </c>
       <c r="G12">
-        <v>-0.001905586747608373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0007207482625917985</v>
+      </c>
+      <c r="H12">
+        <v>-0.0098530226996706</v>
+      </c>
+      <c r="I12">
+        <v>0.01575964007628033</v>
+      </c>
+      <c r="J12">
+        <v>0.001794830598780061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.05834455782766344</v>
+        <v>0.04026168817950741</v>
       </c>
       <c r="C13">
-        <v>-0.01478196733168702</v>
+        <v>-0.01892709527465708</v>
       </c>
       <c r="D13">
-        <v>-0.02919157088257517</v>
+        <v>0.00377234212031102</v>
       </c>
       <c r="E13">
-        <v>0.1107389982780276</v>
+        <v>-0.08099051222008541</v>
       </c>
       <c r="F13">
-        <v>0.01096221470636731</v>
+        <v>0.06914780686092777</v>
       </c>
       <c r="G13">
-        <v>-0.0408331347650657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.002343572490442241</v>
+      </c>
+      <c r="H13">
+        <v>-0.05476775600492195</v>
+      </c>
+      <c r="I13">
+        <v>-0.01934179558029502</v>
+      </c>
+      <c r="J13">
+        <v>-0.002876117196298063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03698620979410638</v>
+        <v>0.02812557351705045</v>
       </c>
       <c r="C14">
-        <v>-0.007471527932908683</v>
+        <v>-0.01559986924513829</v>
       </c>
       <c r="D14">
-        <v>0.01322176964014431</v>
+        <v>0.02010672575582237</v>
       </c>
       <c r="E14">
-        <v>0.02693708124378865</v>
+        <v>-0.02013512295295232</v>
       </c>
       <c r="F14">
-        <v>-0.003636467909344707</v>
+        <v>0.03646815384980515</v>
       </c>
       <c r="G14">
-        <v>-0.04627848475773626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.009092307358694174</v>
+      </c>
+      <c r="H14">
+        <v>-0.05926804733713467</v>
+      </c>
+      <c r="I14">
+        <v>-0.02649021479559731</v>
+      </c>
+      <c r="J14">
+        <v>0.0002508675566595105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.05116371655302659</v>
+        <v>0.0424944492693172</v>
       </c>
       <c r="C16">
-        <v>-0.01977776725570151</v>
+        <v>-0.02763518697030191</v>
       </c>
       <c r="D16">
-        <v>-0.02482563155711994</v>
+        <v>-0.002300493272579969</v>
       </c>
       <c r="E16">
-        <v>0.03568594634358292</v>
+        <v>-0.03229635578176843</v>
       </c>
       <c r="F16">
-        <v>-0.0006935515220504251</v>
+        <v>0.03135448776501532</v>
       </c>
       <c r="G16">
-        <v>0.006079899235198997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.001077470769171655</v>
+      </c>
+      <c r="H16">
+        <v>-0.01944153521590254</v>
+      </c>
+      <c r="I16">
+        <v>0.009499255467818097</v>
+      </c>
+      <c r="J16">
+        <v>-0.005814278844761754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05182050014139391</v>
+        <v>0.04584189920337789</v>
       </c>
       <c r="C19">
-        <v>-0.02943899050599736</v>
+        <v>-0.03684892732601129</v>
       </c>
       <c r="D19">
-        <v>-0.01593146890456025</v>
+        <v>0.003117462096508285</v>
       </c>
       <c r="E19">
-        <v>0.07973956084536313</v>
+        <v>-0.06490302665029354</v>
       </c>
       <c r="F19">
-        <v>-0.00996903351727613</v>
+        <v>0.07309078580637632</v>
       </c>
       <c r="G19">
-        <v>-0.05684873777578121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.0121929052414133</v>
+      </c>
+      <c r="H19">
+        <v>-0.07813817665935568</v>
+      </c>
+      <c r="I19">
+        <v>-0.05510496470887147</v>
+      </c>
+      <c r="J19">
+        <v>0.001309776584893716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.0371409549047572</v>
+        <v>0.01889071665284309</v>
       </c>
       <c r="C20">
-        <v>-0.03169696120835677</v>
+        <v>-0.03287760137194814</v>
       </c>
       <c r="D20">
-        <v>-0.004163994759338442</v>
+        <v>0.009760070255432888</v>
       </c>
       <c r="E20">
-        <v>0.07008422240695743</v>
+        <v>-0.04204699617993434</v>
       </c>
       <c r="F20">
-        <v>-0.01756604722823116</v>
+        <v>0.06758870071463864</v>
       </c>
       <c r="G20">
-        <v>-0.04934461494353007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01246365841663371</v>
+      </c>
+      <c r="H20">
+        <v>-0.07414709973058752</v>
+      </c>
+      <c r="I20">
+        <v>-0.02077331828225857</v>
+      </c>
+      <c r="J20">
+        <v>-0.04035739980343845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03709768764712364</v>
+        <v>0.01736306022465033</v>
       </c>
       <c r="C21">
-        <v>-0.01218408068817588</v>
+        <v>-0.02238246316105814</v>
       </c>
       <c r="D21">
-        <v>-0.02628340123557661</v>
+        <v>-0.01072861913878952</v>
       </c>
       <c r="E21">
-        <v>0.09314020315383932</v>
+        <v>-0.04514358373094733</v>
       </c>
       <c r="F21">
-        <v>0.03652863024525692</v>
+        <v>0.07298112304091264</v>
       </c>
       <c r="G21">
-        <v>-0.05151828713223687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01720523505336357</v>
+      </c>
+      <c r="H21">
+        <v>-0.0442912708994839</v>
+      </c>
+      <c r="I21">
+        <v>0.0001830645930534666</v>
+      </c>
+      <c r="J21">
+        <v>0.01638433292144131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.0464831430630444</v>
+        <v>0.04035644380111401</v>
       </c>
       <c r="C24">
-        <v>-0.01027807986147812</v>
+        <v>-0.01652077349145738</v>
       </c>
       <c r="D24">
-        <v>-0.0126784888562278</v>
+        <v>0.004477133143799259</v>
       </c>
       <c r="E24">
-        <v>0.05052693870291878</v>
+        <v>-0.0353739520847401</v>
       </c>
       <c r="F24">
-        <v>0.001063282898670312</v>
+        <v>0.03407913435470875</v>
       </c>
       <c r="G24">
-        <v>0.009479695482272361</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.007798826784990245</v>
+      </c>
+      <c r="H24">
+        <v>-0.01474062765456985</v>
+      </c>
+      <c r="I24">
+        <v>0.007521635210502232</v>
+      </c>
+      <c r="J24">
+        <v>-0.01142829289661047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.0498561973791978</v>
+        <v>0.04317918835996973</v>
       </c>
       <c r="C25">
-        <v>-0.002170510994686923</v>
+        <v>-0.0182346095033925</v>
       </c>
       <c r="D25">
-        <v>-0.0140132316662594</v>
+        <v>0.002121314708677677</v>
       </c>
       <c r="E25">
-        <v>0.04040766136116276</v>
+        <v>-0.03436516995076374</v>
       </c>
       <c r="F25">
-        <v>0.003371762831064066</v>
+        <v>0.0365073386091204</v>
       </c>
       <c r="G25">
-        <v>0.00875754753100412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.0007573894135611648</v>
+      </c>
+      <c r="H25">
+        <v>-0.01111468749446289</v>
+      </c>
+      <c r="I25">
+        <v>0.01017479042497761</v>
+      </c>
+      <c r="J25">
+        <v>-0.0006635231347857833</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.002563817398526359</v>
+        <v>0.01011536616693886</v>
       </c>
       <c r="C26">
-        <v>-0.01703724216135851</v>
+        <v>-0.01740280971993264</v>
       </c>
       <c r="D26">
-        <v>0.0002800446155106047</v>
+        <v>-0.004868640809285119</v>
       </c>
       <c r="E26">
-        <v>0.05415319484187677</v>
+        <v>-0.04733816546712401</v>
       </c>
       <c r="F26">
-        <v>0.02155789449371973</v>
+        <v>0.03626595603207684</v>
       </c>
       <c r="G26">
-        <v>-0.01957878449526584</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.01003118757074778</v>
+      </c>
+      <c r="H26">
+        <v>-0.03496352819026548</v>
+      </c>
+      <c r="I26">
+        <v>-0.003082059023479479</v>
+      </c>
+      <c r="J26">
+        <v>-0.01343343576951094</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1125620452347656</v>
+        <v>0.08773081360527973</v>
       </c>
       <c r="C27">
-        <v>-0.01352486597542379</v>
+        <v>-0.0273397019978773</v>
       </c>
       <c r="D27">
-        <v>0.0009094795267282217</v>
+        <v>0.02848648105299314</v>
       </c>
       <c r="E27">
-        <v>0.1125124913253408</v>
+        <v>-0.04439707295900853</v>
       </c>
       <c r="F27">
-        <v>0.002759994850922353</v>
+        <v>0.07703361634253837</v>
       </c>
       <c r="G27">
-        <v>0.02148377652893075</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.0008233467904970892</v>
+      </c>
+      <c r="H27">
+        <v>-0.009428423370509219</v>
+      </c>
+      <c r="I27">
+        <v>-0.007306256081319321</v>
+      </c>
+      <c r="J27">
+        <v>-0.02054787036628163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.01658546787950041</v>
+        <v>0.02266041163448141</v>
       </c>
       <c r="C28">
-        <v>0.2396958054692037</v>
+        <v>0.2317830734530705</v>
       </c>
       <c r="D28">
-        <v>-0.01748228428054257</v>
+        <v>-0.007903756236424501</v>
       </c>
       <c r="E28">
-        <v>0.02307347592482996</v>
+        <v>-0.03192998870144499</v>
       </c>
       <c r="F28">
-        <v>0.00213753267615265</v>
+        <v>0.01982573675392791</v>
       </c>
       <c r="G28">
-        <v>0.04512416617987346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02086678985126015</v>
+      </c>
+      <c r="H28">
+        <v>0.04640524521098869</v>
+      </c>
+      <c r="I28">
+        <v>-0.1607723353313603</v>
+      </c>
+      <c r="J28">
+        <v>-0.0516390924193565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02004385009387418</v>
+        <v>0.01935611922253115</v>
       </c>
       <c r="C29">
-        <v>-0.0167976497900108</v>
+        <v>-0.01895970126698558</v>
       </c>
       <c r="D29">
-        <v>0.01272626794399391</v>
+        <v>0.01744412973514981</v>
       </c>
       <c r="E29">
-        <v>0.04129945714968101</v>
+        <v>-0.01604746204458892</v>
       </c>
       <c r="F29">
-        <v>0.01179775267381048</v>
+        <v>0.04329536107184342</v>
       </c>
       <c r="G29">
-        <v>-0.05025096244112329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.01260713451321592</v>
+      </c>
+      <c r="H29">
+        <v>-0.05855471302933362</v>
+      </c>
+      <c r="I29">
+        <v>-0.01515728179850614</v>
+      </c>
+      <c r="J29">
+        <v>0.003047657103565784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1033629770112593</v>
+        <v>0.09973984143158662</v>
       </c>
       <c r="C30">
-        <v>-0.005049159369675718</v>
+        <v>-0.03380270457908446</v>
       </c>
       <c r="D30">
-        <v>-0.003984244147907983</v>
+        <v>0.02847680100288275</v>
       </c>
       <c r="E30">
-        <v>0.1310179668411862</v>
+        <v>-0.09168519709527895</v>
       </c>
       <c r="F30">
-        <v>0.01721256660426411</v>
+        <v>0.07929056551382281</v>
       </c>
       <c r="G30">
-        <v>0.06916433792758994</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01450229308506519</v>
+      </c>
+      <c r="H30">
+        <v>-0.01094350498720381</v>
+      </c>
+      <c r="I30">
+        <v>0.02487650151782904</v>
+      </c>
+      <c r="J30">
+        <v>0.01515758227056123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05530128265847951</v>
+        <v>0.05730969758125089</v>
       </c>
       <c r="C31">
-        <v>-0.01107457509313653</v>
+        <v>-0.01919447424612263</v>
       </c>
       <c r="D31">
-        <v>0.01679938516966077</v>
+        <v>0.01467234930983959</v>
       </c>
       <c r="E31">
-        <v>-0.01049474100206903</v>
+        <v>-0.01726640938235491</v>
       </c>
       <c r="F31">
-        <v>0.01785552867024171</v>
+        <v>-0.001672065193393787</v>
       </c>
       <c r="G31">
-        <v>-0.02677755062961967</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03523798478173833</v>
+      </c>
+      <c r="H31">
+        <v>-0.0501917637452725</v>
+      </c>
+      <c r="I31">
+        <v>-0.02252112136032886</v>
+      </c>
+      <c r="J31">
+        <v>0.002138651704520505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06676525626071722</v>
+        <v>0.0451080934519795</v>
       </c>
       <c r="C32">
-        <v>-0.02383456086071945</v>
+        <v>-0.04685444677061457</v>
       </c>
       <c r="D32">
-        <v>-0.007909500712791645</v>
+        <v>0.01487143447031936</v>
       </c>
       <c r="E32">
-        <v>0.1225048387567359</v>
+        <v>-0.05694588100159304</v>
       </c>
       <c r="F32">
-        <v>-0.0220396455319988</v>
+        <v>0.08991152815950135</v>
       </c>
       <c r="G32">
-        <v>-0.03238333008034134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.0153531667197422</v>
+      </c>
+      <c r="H32">
+        <v>-0.04882907249928085</v>
+      </c>
+      <c r="I32">
+        <v>-0.03093658868253942</v>
+      </c>
+      <c r="J32">
+        <v>0.01734520851444351</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06928505521559844</v>
+        <v>0.05833283613911211</v>
       </c>
       <c r="C33">
-        <v>-0.02566292503361435</v>
+        <v>-0.04335692777973573</v>
       </c>
       <c r="D33">
-        <v>-0.004114994385514373</v>
+        <v>0.001677043427018545</v>
       </c>
       <c r="E33">
-        <v>0.07556425211832521</v>
+        <v>-0.06532318844132476</v>
       </c>
       <c r="F33">
-        <v>0.03269185106897583</v>
+        <v>0.06049741221711132</v>
       </c>
       <c r="G33">
-        <v>-0.02572788855485266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01545317263310747</v>
+      </c>
+      <c r="H33">
+        <v>-0.05234028679834481</v>
+      </c>
+      <c r="I33">
+        <v>0.007107390663335003</v>
+      </c>
+      <c r="J33">
+        <v>-0.002440661154546608</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04742020906692729</v>
+        <v>0.04225837021692742</v>
       </c>
       <c r="C34">
-        <v>-0.01076493521698257</v>
+        <v>-0.02320657150262706</v>
       </c>
       <c r="D34">
-        <v>-0.01038619731956814</v>
+        <v>0.007729481823314225</v>
       </c>
       <c r="E34">
-        <v>0.02386826083537978</v>
+        <v>-0.02603005989850095</v>
       </c>
       <c r="F34">
-        <v>-0.005530869004213874</v>
+        <v>0.02847927163558307</v>
       </c>
       <c r="G34">
-        <v>-0.01016499257371723</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0002471879177244671</v>
+      </c>
+      <c r="H34">
+        <v>-0.02191213973511695</v>
+      </c>
+      <c r="I34">
+        <v>0.009708516828360452</v>
+      </c>
+      <c r="J34">
+        <v>0.005206585055429878</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01217223936857252</v>
+        <v>0.01384876935636717</v>
       </c>
       <c r="C36">
-        <v>0.009824499573536968</v>
+        <v>-0.001014845750570512</v>
       </c>
       <c r="D36">
-        <v>0.003389651545935539</v>
+        <v>0.005887439013521969</v>
       </c>
       <c r="E36">
-        <v>0.02470450085161837</v>
+        <v>-0.01763990749192784</v>
       </c>
       <c r="F36">
-        <v>0.01032950109249859</v>
+        <v>0.0263997018023273</v>
       </c>
       <c r="G36">
-        <v>-0.01498188928710452</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01476672130856514</v>
+      </c>
+      <c r="H36">
+        <v>-0.0336562507063406</v>
+      </c>
+      <c r="I36">
+        <v>-0.01109478584374209</v>
+      </c>
+      <c r="J36">
+        <v>0.01030539537094648</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05338469907714934</v>
+        <v>0.03046974110313294</v>
       </c>
       <c r="C38">
-        <v>-0.002256409685054761</v>
+        <v>-0.006714442795524384</v>
       </c>
       <c r="D38">
-        <v>0.01540725156749383</v>
+        <v>0.006246058148009975</v>
       </c>
       <c r="E38">
-        <v>0.04094054863297107</v>
+        <v>-0.03059276379605944</v>
       </c>
       <c r="F38">
-        <v>0.01125582809398014</v>
+        <v>0.04511967728482724</v>
       </c>
       <c r="G38">
-        <v>-0.03444228333840646</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02263929371728046</v>
+      </c>
+      <c r="H38">
+        <v>-0.01993609325351607</v>
+      </c>
+      <c r="I38">
+        <v>-0.005491467377905236</v>
+      </c>
+      <c r="J38">
+        <v>0.02854777677765482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07608103106806659</v>
+        <v>0.0611194872494152</v>
       </c>
       <c r="C39">
-        <v>-0.01191815620206136</v>
+        <v>-0.03488329977174132</v>
       </c>
       <c r="D39">
-        <v>-0.007745814050194106</v>
+        <v>0.01811140674298329</v>
       </c>
       <c r="E39">
-        <v>0.04535709677805273</v>
+        <v>-0.0503893871357303</v>
       </c>
       <c r="F39">
-        <v>0.01787314259203516</v>
+        <v>0.03674539616776088</v>
       </c>
       <c r="G39">
-        <v>0.00749426481522295</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01111803088378253</v>
+      </c>
+      <c r="H39">
+        <v>-0.01978698555656967</v>
+      </c>
+      <c r="I39">
+        <v>0.02245294002381654</v>
+      </c>
+      <c r="J39">
+        <v>0.008076687452288905</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07222687687276985</v>
+        <v>0.05715574707619925</v>
       </c>
       <c r="C40">
-        <v>-0.02624554043880411</v>
+        <v>-0.03271629841111347</v>
       </c>
       <c r="D40">
-        <v>-0.01911947990854276</v>
+        <v>0.01945305886414113</v>
       </c>
       <c r="E40">
-        <v>0.1135444792544054</v>
+        <v>-0.09079785747650904</v>
       </c>
       <c r="F40">
-        <v>0.02198233913187761</v>
+        <v>0.0684490021486799</v>
       </c>
       <c r="G40">
-        <v>-0.08270316739755176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.003708292553960986</v>
+      </c>
+      <c r="H40">
+        <v>-0.07978809501370403</v>
+      </c>
+      <c r="I40">
+        <v>-0.01469791055121482</v>
+      </c>
+      <c r="J40">
+        <v>-0.02257424987537514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.004148301515253594</v>
+        <v>0.001231007050085283</v>
       </c>
       <c r="C41">
-        <v>-0.01225734661187322</v>
+        <v>-0.01121240061294871</v>
       </c>
       <c r="D41">
-        <v>0.01183918594592472</v>
+        <v>0.003044749962971073</v>
       </c>
       <c r="E41">
-        <v>0.01500136049730971</v>
+        <v>-0.008609993390326063</v>
       </c>
       <c r="F41">
-        <v>0.0218659636832537</v>
+        <v>0.01606906096240068</v>
       </c>
       <c r="G41">
-        <v>-0.03044146394787652</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.02411639145944531</v>
+      </c>
+      <c r="H41">
+        <v>-0.04009655686112669</v>
+      </c>
+      <c r="I41">
+        <v>-0.02835553282324034</v>
+      </c>
+      <c r="J41">
+        <v>-0.009507020682025783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1345127460590076</v>
+        <v>0.2406015027268335</v>
       </c>
       <c r="C42">
-        <v>-0.1672131526667998</v>
+        <v>-0.09855043043226028</v>
       </c>
       <c r="D42">
-        <v>-0.9175921749246854</v>
+        <v>-0.9117339686421639</v>
       </c>
       <c r="E42">
-        <v>-0.1755082139062361</v>
+        <v>-0.03846196777656412</v>
       </c>
       <c r="F42">
-        <v>-0.03273156745985376</v>
+        <v>-0.2587103724232241</v>
       </c>
       <c r="G42">
-        <v>0.1554216016227274</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.0101804862312714</v>
+      </c>
+      <c r="H42">
+        <v>0.02267010306177695</v>
+      </c>
+      <c r="I42">
+        <v>-0.04675613952956933</v>
+      </c>
+      <c r="J42">
+        <v>-0.01488968985564267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.007889223111886308</v>
+        <v>0.002598482534102503</v>
       </c>
       <c r="C43">
-        <v>-0.0144481609458694</v>
+        <v>-0.01372024703898854</v>
       </c>
       <c r="D43">
-        <v>0.01076079084543133</v>
+        <v>0.003329786976145256</v>
       </c>
       <c r="E43">
-        <v>0.03721057370500198</v>
+        <v>-0.01947576182628111</v>
       </c>
       <c r="F43">
-        <v>-0.002142871939100085</v>
+        <v>0.02483646155750206</v>
       </c>
       <c r="G43">
-        <v>-0.0261813260506629</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.005856978836498637</v>
+      </c>
+      <c r="H43">
+        <v>-0.0372861909060587</v>
+      </c>
+      <c r="I43">
+        <v>-0.017968939920878</v>
+      </c>
+      <c r="J43">
+        <v>-0.008163764552414052</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04344969773943172</v>
+        <v>0.02817804118908661</v>
       </c>
       <c r="C44">
-        <v>-0.03126136920753116</v>
+        <v>-0.03005237316671703</v>
       </c>
       <c r="D44">
-        <v>-0.01296312974734553</v>
+        <v>-0.003029569346683674</v>
       </c>
       <c r="E44">
-        <v>0.1158008752830042</v>
+        <v>-0.08102402012868729</v>
       </c>
       <c r="F44">
-        <v>0.05422861432737417</v>
+        <v>0.09661965524105116</v>
       </c>
       <c r="G44">
-        <v>-0.1260247502823676</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.02437557477212848</v>
+      </c>
+      <c r="H44">
+        <v>-0.1154268295950678</v>
+      </c>
+      <c r="I44">
+        <v>-0.04073401777522318</v>
+      </c>
+      <c r="J44">
+        <v>0.0001272348127040615</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02132348531371237</v>
+        <v>0.02100135257595509</v>
       </c>
       <c r="C46">
-        <v>-0.01332777476560668</v>
+        <v>-0.02562865427405278</v>
       </c>
       <c r="D46">
-        <v>0.0191345761136232</v>
+        <v>0.01547614901182123</v>
       </c>
       <c r="E46">
-        <v>0.02707737883062647</v>
+        <v>-0.0311897302503758</v>
       </c>
       <c r="F46">
-        <v>0.02421795531818858</v>
+        <v>0.03785030547517974</v>
       </c>
       <c r="G46">
-        <v>-0.04706531343032606</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01333957289674011</v>
+      </c>
+      <c r="H46">
+        <v>-0.06040809372656026</v>
+      </c>
+      <c r="I46">
+        <v>-0.02162774199443944</v>
+      </c>
+      <c r="J46">
+        <v>-0.01496817003194034</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.07966955479507934</v>
+        <v>0.08853809900444781</v>
       </c>
       <c r="C47">
-        <v>-0.005612890991900902</v>
+        <v>-0.01768990712075989</v>
       </c>
       <c r="D47">
-        <v>0.01778888226275395</v>
+        <v>0.02163043451142432</v>
       </c>
       <c r="E47">
-        <v>-0.009821734111523988</v>
+        <v>-0.001423009747500013</v>
       </c>
       <c r="F47">
-        <v>0.01014202277095207</v>
+        <v>-0.001185282032951356</v>
       </c>
       <c r="G47">
-        <v>-0.05032080517442786</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.02956785367533534</v>
+      </c>
+      <c r="H47">
+        <v>-0.06963240776935875</v>
+      </c>
+      <c r="I47">
+        <v>-0.03114854655181975</v>
+      </c>
+      <c r="J47">
+        <v>-0.009209731054663625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01445198841855178</v>
+        <v>0.01442887907087871</v>
       </c>
       <c r="C48">
-        <v>-0.01529114732640534</v>
+        <v>-0.01902205896349897</v>
       </c>
       <c r="D48">
-        <v>0.008229023005033425</v>
+        <v>0.004226778798884642</v>
       </c>
       <c r="E48">
-        <v>0.03899462523234655</v>
+        <v>-0.02131554405143123</v>
       </c>
       <c r="F48">
-        <v>0.01682724948407994</v>
+        <v>0.03553619860781477</v>
       </c>
       <c r="G48">
-        <v>-0.01259657878679136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.009591369020393948</v>
+      </c>
+      <c r="H48">
+        <v>-0.02337368130601962</v>
+      </c>
+      <c r="I48">
+        <v>-0.01808303581467329</v>
+      </c>
+      <c r="J48">
+        <v>-0.005860589610493458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.07716768890276841</v>
+        <v>0.08144719853795207</v>
       </c>
       <c r="C50">
-        <v>-0.01901569923685243</v>
+        <v>-0.03143949451051477</v>
       </c>
       <c r="D50">
-        <v>0.02182566151659702</v>
+        <v>0.01505108302879762</v>
       </c>
       <c r="E50">
-        <v>-0.01999858145388181</v>
+        <v>-0.003292784285592044</v>
       </c>
       <c r="F50">
-        <v>0.01210989659275325</v>
+        <v>0.009161751346466242</v>
       </c>
       <c r="G50">
-        <v>-0.02958288047552545</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.002974085030974573</v>
+      </c>
+      <c r="H50">
+        <v>-0.05115698761556544</v>
+      </c>
+      <c r="I50">
+        <v>-0.01460772930801604</v>
+      </c>
+      <c r="J50">
+        <v>0.03531247463796768</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06792437398513988</v>
+        <v>0.04752558650220679</v>
       </c>
       <c r="C51">
-        <v>0.02210576069304094</v>
+        <v>0.002862889087072384</v>
       </c>
       <c r="D51">
-        <v>-0.01194867036015141</v>
+        <v>0.007915165460063043</v>
       </c>
       <c r="E51">
-        <v>0.07646860730007671</v>
+        <v>-0.08200780000532663</v>
       </c>
       <c r="F51">
-        <v>0.0534531122310278</v>
+        <v>0.05684084044226937</v>
       </c>
       <c r="G51">
-        <v>-0.02604710370167804</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.0419212675811375</v>
+      </c>
+      <c r="H51">
+        <v>-0.05707523688285855</v>
+      </c>
+      <c r="I51">
+        <v>-0.04901395053857965</v>
+      </c>
+      <c r="J51">
+        <v>-0.004117134066077331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1476757143018517</v>
+        <v>0.1299115049811701</v>
       </c>
       <c r="C53">
-        <v>-0.006651542024444619</v>
+        <v>-0.03879067635795516</v>
       </c>
       <c r="D53">
-        <v>0.04551699661573412</v>
+        <v>0.0460191607958915</v>
       </c>
       <c r="E53">
-        <v>-0.02414185652543903</v>
+        <v>0.01856657407689723</v>
       </c>
       <c r="F53">
-        <v>0.001746914532581579</v>
+        <v>-0.01928116792667822</v>
       </c>
       <c r="G53">
-        <v>-0.02314248594561094</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02480489683445627</v>
+      </c>
+      <c r="H53">
+        <v>-0.01296083319142535</v>
+      </c>
+      <c r="I53">
+        <v>-0.02296106364728459</v>
+      </c>
+      <c r="J53">
+        <v>-0.06321300730111655</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02565535223928981</v>
+        <v>0.02447608693707169</v>
       </c>
       <c r="C54">
-        <v>0.006019036337350483</v>
+        <v>-0.0055678945266237</v>
       </c>
       <c r="D54">
-        <v>0.01476315995772251</v>
+        <v>0.02289816166044058</v>
       </c>
       <c r="E54">
-        <v>0.04274338784576532</v>
+        <v>-0.01631200136898243</v>
       </c>
       <c r="F54">
-        <v>0.03369591597663978</v>
+        <v>0.04218640315585872</v>
       </c>
       <c r="G54">
-        <v>-0.05600543572988656</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.02425197051832042</v>
+      </c>
+      <c r="H54">
+        <v>-0.0648265212698612</v>
+      </c>
+      <c r="I54">
+        <v>-0.04461417712725529</v>
+      </c>
+      <c r="J54">
+        <v>0.008446894890502118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09819213710772821</v>
+        <v>0.1017804076159187</v>
       </c>
       <c r="C55">
-        <v>0.003168334669546007</v>
+        <v>-0.02159387873999191</v>
       </c>
       <c r="D55">
-        <v>0.03815819895292013</v>
+        <v>0.02960490545008792</v>
       </c>
       <c r="E55">
-        <v>0.007833410841053571</v>
+        <v>0.03307197940971594</v>
       </c>
       <c r="F55">
-        <v>-0.02268419280670485</v>
+        <v>0.007023412099288349</v>
       </c>
       <c r="G55">
-        <v>-0.01023087511085775</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.00903635676752188</v>
+      </c>
+      <c r="H55">
+        <v>-0.02862055852683444</v>
+      </c>
+      <c r="I55">
+        <v>-0.006490328927974873</v>
+      </c>
+      <c r="J55">
+        <v>-0.05847269971852911</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1796783880229828</v>
+        <v>0.1691227959017082</v>
       </c>
       <c r="C56">
-        <v>0.02003135923050699</v>
+        <v>-0.02165956348324272</v>
       </c>
       <c r="D56">
-        <v>0.08817325505783001</v>
+        <v>0.08755854140247844</v>
       </c>
       <c r="E56">
-        <v>-0.05659476859768584</v>
+        <v>0.06268572975008392</v>
       </c>
       <c r="F56">
-        <v>-0.05121741250968465</v>
+        <v>-0.0389700014492808</v>
       </c>
       <c r="G56">
-        <v>0.00440520834583103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.01681273270529991</v>
+      </c>
+      <c r="H56">
+        <v>0.0290960745727302</v>
+      </c>
+      <c r="I56">
+        <v>0.02323229029637858</v>
+      </c>
+      <c r="J56">
+        <v>-0.08591316055789289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09007742336889363</v>
+        <v>0.07071615619277771</v>
       </c>
       <c r="C57">
-        <v>-0.01765821251923065</v>
+        <v>-0.02427836325085536</v>
       </c>
       <c r="D57">
-        <v>0.01432617686008929</v>
+        <v>0.009423707827380143</v>
       </c>
       <c r="E57">
-        <v>0.07002672369181934</v>
+        <v>-0.0551110772024582</v>
       </c>
       <c r="F57">
-        <v>0.004977459595454034</v>
+        <v>0.05302032795779998</v>
       </c>
       <c r="G57">
-        <v>-0.04564523567011085</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.0024472672643182</v>
+      </c>
+      <c r="H57">
+        <v>-0.04540377783648756</v>
+      </c>
+      <c r="I57">
+        <v>0.005520736082527848</v>
+      </c>
+      <c r="J57">
+        <v>-0.02127468254127998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1633000025365818</v>
+        <v>0.1949334176967293</v>
       </c>
       <c r="C58">
-        <v>0.0020155998422899</v>
+        <v>-0.04004787244471069</v>
       </c>
       <c r="D58">
-        <v>-0.07237553042120604</v>
+        <v>-0.01825502619946195</v>
       </c>
       <c r="E58">
-        <v>0.1145521449771335</v>
+        <v>-0.14044502039753</v>
       </c>
       <c r="F58">
-        <v>-0.1042389967394512</v>
+        <v>0.1050305434021086</v>
       </c>
       <c r="G58">
-        <v>-0.242195942781143</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.2079755052681866</v>
+      </c>
+      <c r="H58">
+        <v>-0.2960885507415489</v>
+      </c>
+      <c r="I58">
+        <v>-0.1075882423555265</v>
+      </c>
+      <c r="J58">
+        <v>0.4947840071808974</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.006036258159345228</v>
+        <v>0.02645331178301685</v>
       </c>
       <c r="C59">
-        <v>0.2035407210785459</v>
+        <v>0.1980010942032532</v>
       </c>
       <c r="D59">
-        <v>0.01462673489845241</v>
+        <v>0.02656927949495943</v>
       </c>
       <c r="E59">
-        <v>0.04488403696763098</v>
+        <v>-0.0546380966226627</v>
       </c>
       <c r="F59">
-        <v>0.004450214340383834</v>
+        <v>0.01886005996881661</v>
       </c>
       <c r="G59">
-        <v>0.04168676242972926</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.001602498145407015</v>
+      </c>
+      <c r="H59">
+        <v>0.03343876235771635</v>
+      </c>
+      <c r="I59">
+        <v>-0.079768657491551</v>
+      </c>
+      <c r="J59">
+        <v>0.006053052792110696</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1813529594068365</v>
+        <v>0.1821385624107177</v>
       </c>
       <c r="C60">
-        <v>0.1162513702740873</v>
+        <v>0.05790089998006</v>
       </c>
       <c r="D60">
-        <v>0.009365760747447726</v>
+        <v>0.03304385643154435</v>
       </c>
       <c r="E60">
-        <v>0.175227823082398</v>
+        <v>-0.1959359979146582</v>
       </c>
       <c r="F60">
-        <v>0.04226540605255235</v>
+        <v>0.08863851277142576</v>
       </c>
       <c r="G60">
-        <v>0.1652623011711551</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.03812026741776597</v>
+      </c>
+      <c r="H60">
+        <v>0.2355707133952241</v>
+      </c>
+      <c r="I60">
+        <v>0.1294766066341084</v>
+      </c>
+      <c r="J60">
+        <v>0.00479396629207387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04836429176090824</v>
+        <v>0.03777973214243048</v>
       </c>
       <c r="C61">
-        <v>-0.00321963001056825</v>
+        <v>-0.01872177942172954</v>
       </c>
       <c r="D61">
-        <v>-0.01447767025434523</v>
+        <v>0.001354599424278692</v>
       </c>
       <c r="E61">
-        <v>0.04466211393032458</v>
+        <v>-0.03803240308906455</v>
       </c>
       <c r="F61">
-        <v>0.01609912247983783</v>
+        <v>0.02973864725956299</v>
       </c>
       <c r="G61">
-        <v>0.02075971680991085</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.008893224656155843</v>
+      </c>
+      <c r="H61">
+        <v>-0.006502570216243862</v>
+      </c>
+      <c r="I61">
+        <v>0.03093682861715102</v>
+      </c>
+      <c r="J61">
+        <v>0.0245193039679154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04032814090916633</v>
+        <v>0.0277435779779732</v>
       </c>
       <c r="C63">
-        <v>0.009689859932518906</v>
+        <v>-0.01375734852524964</v>
       </c>
       <c r="D63">
-        <v>0.007336810516363486</v>
+        <v>0.009656350252076553</v>
       </c>
       <c r="E63">
-        <v>0.04298428360224079</v>
+        <v>-0.02767179101010169</v>
       </c>
       <c r="F63">
-        <v>0.008654684056631343</v>
+        <v>0.02475307359413081</v>
       </c>
       <c r="G63">
-        <v>-0.01936486568634159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.005147686681970545</v>
+      </c>
+      <c r="H63">
+        <v>-0.04571898048601093</v>
+      </c>
+      <c r="I63">
+        <v>-0.03389785423792444</v>
+      </c>
+      <c r="J63">
+        <v>-0.03778793532596919</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.09301173841560391</v>
+        <v>0.06687755391013851</v>
       </c>
       <c r="C64">
-        <v>-0.02672263655533985</v>
+        <v>-0.04102658037190875</v>
       </c>
       <c r="D64">
-        <v>0.04384641879057542</v>
+        <v>0.03040776754329693</v>
       </c>
       <c r="E64">
-        <v>0.07028972545225913</v>
+        <v>-0.01272063138738492</v>
       </c>
       <c r="F64">
-        <v>0.08656021733488307</v>
+        <v>0.077813122836208</v>
       </c>
       <c r="G64">
-        <v>0.04629629005572122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06918828948828201</v>
+      </c>
+      <c r="H64">
+        <v>0.002388497464622942</v>
+      </c>
+      <c r="I64">
+        <v>-0.01803271177868043</v>
+      </c>
+      <c r="J64">
+        <v>-0.0565108492892937</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.0135326469370525</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.002702036083001048</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.0001217748042661077</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.002245989257458144</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.008212362356859565</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.01424590451171404</v>
+      </c>
+      <c r="H65">
+        <v>-0.0007885321123967389</v>
+      </c>
+      <c r="I65">
+        <v>0.0004309563958168493</v>
+      </c>
+      <c r="J65">
+        <v>0.002562867088505055</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.1008716407233559</v>
+        <v>0.07179508292585469</v>
       </c>
       <c r="C66">
-        <v>-0.01490431917646735</v>
+        <v>-0.04672971816411019</v>
       </c>
       <c r="D66">
-        <v>0.0257567670706253</v>
+        <v>0.04176071991482324</v>
       </c>
       <c r="E66">
-        <v>0.08618433849043937</v>
+        <v>-0.06608628693885384</v>
       </c>
       <c r="F66">
-        <v>0.03401745109565567</v>
+        <v>0.05192670668429319</v>
       </c>
       <c r="G66">
-        <v>0.000201769838386063</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01670247074088415</v>
+      </c>
+      <c r="H66">
+        <v>-0.01683706244627346</v>
+      </c>
+      <c r="I66">
+        <v>0.0408890146442924</v>
+      </c>
+      <c r="J66">
+        <v>-0.01656848186716026</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.05973389411061429</v>
+        <v>0.04033671233236888</v>
       </c>
       <c r="C67">
-        <v>0.02001643622161461</v>
+        <v>0.008099392016659867</v>
       </c>
       <c r="D67">
-        <v>0.005486958030652525</v>
+        <v>0.005538464482391502</v>
       </c>
       <c r="E67">
-        <v>0.03323318861298703</v>
+        <v>-0.02993739649812192</v>
       </c>
       <c r="F67">
-        <v>0.01134522475725959</v>
+        <v>0.03064822069617241</v>
       </c>
       <c r="G67">
-        <v>-0.03281287365148781</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.0312311520855317</v>
+      </c>
+      <c r="H67">
+        <v>-0.005624324418463875</v>
+      </c>
+      <c r="I67">
+        <v>0.03226210884763794</v>
+      </c>
+      <c r="J67">
+        <v>0.01429783574226466</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.004038650686057907</v>
+        <v>0.0353098587971066</v>
       </c>
       <c r="C68">
-        <v>0.2421369814341794</v>
+        <v>0.2310315481149071</v>
       </c>
       <c r="D68">
-        <v>-0.002011270248618805</v>
+        <v>0.01822743117397764</v>
       </c>
       <c r="E68">
-        <v>0.02764940051270534</v>
+        <v>-0.04012681804542075</v>
       </c>
       <c r="F68">
-        <v>-0.01291014895573359</v>
+        <v>0.01442659100841141</v>
       </c>
       <c r="G68">
-        <v>0.03207402905953386</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01260567964364395</v>
+      </c>
+      <c r="H68">
+        <v>0.04151039127458479</v>
+      </c>
+      <c r="I68">
+        <v>-0.1725410843766576</v>
+      </c>
+      <c r="J68">
+        <v>-0.01127944689912263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.0650312940449187</v>
+        <v>0.06861057979798016</v>
       </c>
       <c r="C69">
-        <v>-0.005082059957653722</v>
+        <v>-0.01577086298109252</v>
       </c>
       <c r="D69">
-        <v>0.02782125629053342</v>
+        <v>0.02881926062278125</v>
       </c>
       <c r="E69">
-        <v>0.002260098987310669</v>
+        <v>-0.0124784632945648</v>
       </c>
       <c r="F69">
-        <v>0.006596572640501316</v>
+        <v>0.0005390446490231333</v>
       </c>
       <c r="G69">
-        <v>-0.01799138379659043</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02358693364003713</v>
+      </c>
+      <c r="H69">
+        <v>-0.04814874983440944</v>
+      </c>
+      <c r="I69">
+        <v>-0.003588319009369566</v>
+      </c>
+      <c r="J69">
+        <v>-0.006746266602201414</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.0003685261078369676</v>
+        <v>0.03949573886114156</v>
       </c>
       <c r="C71">
-        <v>0.2529516935288036</v>
+        <v>0.2464449700066485</v>
       </c>
       <c r="D71">
-        <v>-0.006770878465123034</v>
+        <v>0.000274782872189657</v>
       </c>
       <c r="E71">
-        <v>0.05832647568661288</v>
+        <v>-0.07198500420920896</v>
       </c>
       <c r="F71">
-        <v>0.002149050627460675</v>
+        <v>0.01046972344408183</v>
       </c>
       <c r="G71">
-        <v>0.1175219686738019</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01383870716106997</v>
+      </c>
+      <c r="H71">
+        <v>0.05649798323291589</v>
+      </c>
+      <c r="I71">
+        <v>-0.1536271207539602</v>
+      </c>
+      <c r="J71">
+        <v>0.01739276472426658</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1114097564214549</v>
+        <v>0.1152211821636349</v>
       </c>
       <c r="C72">
-        <v>0.01870294260964129</v>
+        <v>-3.335641106236988e-05</v>
       </c>
       <c r="D72">
-        <v>0.03108490498822149</v>
+        <v>0.059617832220629</v>
       </c>
       <c r="E72">
-        <v>0.08220942746795692</v>
+        <v>-0.05599703359291657</v>
       </c>
       <c r="F72">
-        <v>0.007216917967968447</v>
+        <v>0.06761218118683364</v>
       </c>
       <c r="G72">
-        <v>-0.02608107253653785</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02553737360157783</v>
+      </c>
+      <c r="H72">
+        <v>-0.001262618595198021</v>
+      </c>
+      <c r="I72">
+        <v>-0.003978174737684366</v>
+      </c>
+      <c r="J72">
+        <v>0.08983784374575686</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2747244866127205</v>
+        <v>0.2734393034673129</v>
       </c>
       <c r="C73">
-        <v>0.2174980812870336</v>
+        <v>0.1294138539601904</v>
       </c>
       <c r="D73">
-        <v>-0.04390240585678113</v>
+        <v>0.01406668446400886</v>
       </c>
       <c r="E73">
-        <v>0.2934545656975016</v>
+        <v>-0.3031075871887217</v>
       </c>
       <c r="F73">
-        <v>0.03095531581775899</v>
+        <v>0.1278548366176538</v>
       </c>
       <c r="G73">
-        <v>0.4006143866623046</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.08833003286626576</v>
+      </c>
+      <c r="H73">
+        <v>0.432548592555941</v>
+      </c>
+      <c r="I73">
+        <v>0.362719514231203</v>
+      </c>
+      <c r="J73">
+        <v>0.1602233603097732</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1547644537031345</v>
+        <v>0.1498654054769385</v>
       </c>
       <c r="C74">
-        <v>0.006382507713886665</v>
+        <v>-0.01999458872054901</v>
       </c>
       <c r="D74">
-        <v>0.05367716863157845</v>
+        <v>0.04805870764445891</v>
       </c>
       <c r="E74">
-        <v>0.003307674284743989</v>
+        <v>0.0222570773372965</v>
       </c>
       <c r="F74">
-        <v>-0.03860816279475786</v>
+        <v>-0.02342417906183916</v>
       </c>
       <c r="G74">
-        <v>0.01130800687029437</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.009013473913034952</v>
+      </c>
+      <c r="H74">
+        <v>0.01932208541900658</v>
+      </c>
+      <c r="I74">
+        <v>0.01930880301998729</v>
+      </c>
+      <c r="J74">
+        <v>-0.09382851750835677</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2357683940448063</v>
+        <v>0.2419011206206684</v>
       </c>
       <c r="C75">
-        <v>0.01453499079526192</v>
+        <v>-0.0309507940543169</v>
       </c>
       <c r="D75">
-        <v>0.07355648692818256</v>
+        <v>0.0999845535524892</v>
       </c>
       <c r="E75">
-        <v>-0.1121028886120821</v>
+        <v>0.08828626319757714</v>
       </c>
       <c r="F75">
-        <v>-0.03819332574023099</v>
+        <v>-0.08987155130793642</v>
       </c>
       <c r="G75">
-        <v>-0.005760520124046995</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.01216419548283102</v>
+      </c>
+      <c r="H75">
+        <v>0.0123420429470985</v>
+      </c>
+      <c r="I75">
+        <v>-0.02231253149378182</v>
+      </c>
+      <c r="J75">
+        <v>-0.1557153315259225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2398214935671337</v>
+        <v>0.25986298220049</v>
       </c>
       <c r="C76">
-        <v>0.01387778445911867</v>
+        <v>-0.02425616248327069</v>
       </c>
       <c r="D76">
-        <v>0.1078065241589321</v>
+        <v>0.1288485787508</v>
       </c>
       <c r="E76">
-        <v>-0.07823485728108898</v>
+        <v>0.1202570842657718</v>
       </c>
       <c r="F76">
-        <v>-0.04264376375076839</v>
+        <v>-0.08581562422960003</v>
       </c>
       <c r="G76">
-        <v>0.006047635362062356</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.02826495903448184</v>
+      </c>
+      <c r="H76">
+        <v>0.01555852874353226</v>
+      </c>
+      <c r="I76">
+        <v>0.05193309241296389</v>
+      </c>
+      <c r="J76">
+        <v>-0.1731879277898702</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1264797867439972</v>
+        <v>0.1304468988177963</v>
       </c>
       <c r="C77">
-        <v>-0.01605158465782886</v>
+        <v>-0.04434942261365388</v>
       </c>
       <c r="D77">
-        <v>-0.08357144501470806</v>
+        <v>-0.0548332955500876</v>
       </c>
       <c r="E77">
-        <v>0.1617269394703509</v>
+        <v>-0.1171474061793457</v>
       </c>
       <c r="F77">
-        <v>-0.008379808995532778</v>
+        <v>0.1287089957830069</v>
       </c>
       <c r="G77">
-        <v>-0.1299197331180338</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03489468123716225</v>
+      </c>
+      <c r="H77">
+        <v>-0.1617571495431389</v>
+      </c>
+      <c r="I77">
+        <v>-0.1693166846973016</v>
+      </c>
+      <c r="J77">
+        <v>-0.09004298077142055</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09471785048359709</v>
+        <v>0.08916219778752253</v>
       </c>
       <c r="C78">
-        <v>-0.0303104259589622</v>
+        <v>-0.05532495245862989</v>
       </c>
       <c r="D78">
-        <v>-0.02679461152712198</v>
+        <v>-0.004203667897773732</v>
       </c>
       <c r="E78">
-        <v>0.07040632559578758</v>
+        <v>-0.05140522534383574</v>
       </c>
       <c r="F78">
-        <v>0.004871265498965918</v>
+        <v>0.0766300612733338</v>
       </c>
       <c r="G78">
-        <v>0.02701137870760685</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.003127999304335566</v>
+      </c>
+      <c r="H78">
+        <v>-0.01413532477807146</v>
+      </c>
+      <c r="I78">
+        <v>-0.03718679586525475</v>
+      </c>
+      <c r="J78">
+        <v>-0.01231128335345791</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.07520847588745287</v>
+        <v>0.1233464103046689</v>
       </c>
       <c r="C80">
-        <v>0.006118502378450866</v>
+        <v>0.1337712740165801</v>
       </c>
       <c r="D80">
-        <v>-0.02153559850785029</v>
+        <v>-0.2077470560712185</v>
       </c>
       <c r="E80">
-        <v>0.008222739103077045</v>
+        <v>0.6705582455317893</v>
       </c>
       <c r="F80">
-        <v>-0.04197917457943842</v>
+        <v>0.659955757024808</v>
       </c>
       <c r="G80">
-        <v>-0.2730410224869311</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.03055623217441053</v>
+      </c>
+      <c r="H80">
+        <v>0.1015828090212621</v>
+      </c>
+      <c r="I80">
+        <v>0.06527963702374871</v>
+      </c>
+      <c r="J80">
+        <v>0.09295834562718297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1619136399996325</v>
+        <v>0.1724119251562969</v>
       </c>
       <c r="C81">
-        <v>0.01000332155878311</v>
+        <v>-0.01385164547737827</v>
       </c>
       <c r="D81">
-        <v>0.06586130542811879</v>
+        <v>0.08578847370137595</v>
       </c>
       <c r="E81">
-        <v>-0.1167124749184335</v>
+        <v>0.1029401219939645</v>
       </c>
       <c r="F81">
-        <v>-0.06659573452964253</v>
+        <v>-0.1003884398586149</v>
       </c>
       <c r="G81">
-        <v>-0.0007969708569059409</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02004745156542197</v>
+      </c>
+      <c r="H81">
+        <v>0.01086364186868499</v>
+      </c>
+      <c r="I81">
+        <v>-0.001872784113897036</v>
+      </c>
+      <c r="J81">
+        <v>-0.09704886465096792</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.08063111715761234</v>
+        <v>0.06479135887338645</v>
       </c>
       <c r="C83">
-        <v>-0.03181929036498252</v>
+        <v>-0.03826326643446993</v>
       </c>
       <c r="D83">
-        <v>-0.09815897086629165</v>
+        <v>-0.04401120259335337</v>
       </c>
       <c r="E83">
-        <v>0.03126396403314406</v>
+        <v>-0.05811292606714879</v>
       </c>
       <c r="F83">
-        <v>0.06435837926651684</v>
+        <v>0.02511754958180445</v>
       </c>
       <c r="G83">
-        <v>-0.03442829276173191</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.0454036521772628</v>
+      </c>
+      <c r="H83">
+        <v>-0.0415722295641252</v>
+      </c>
+      <c r="I83">
+        <v>-0.02014549824694657</v>
+      </c>
+      <c r="J83">
+        <v>-0.08585429198840321</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2432337812178548</v>
+        <v>0.2531198969869579</v>
       </c>
       <c r="C85">
-        <v>-0.05075347050579022</v>
+        <v>-0.06513297019077037</v>
       </c>
       <c r="D85">
-        <v>0.06271475951953009</v>
+        <v>0.08358105893710133</v>
       </c>
       <c r="E85">
-        <v>-0.1198912333183433</v>
+        <v>0.1181439048509029</v>
       </c>
       <c r="F85">
-        <v>-0.02568908097947258</v>
+        <v>-0.08220827846880241</v>
       </c>
       <c r="G85">
-        <v>-0.04130470832569073</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.01278341110028034</v>
+      </c>
+      <c r="H85">
+        <v>-0.02956325331138759</v>
+      </c>
+      <c r="I85">
+        <v>-0.01468197378295723</v>
+      </c>
+      <c r="J85">
+        <v>-0.175954050807841</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04804997357793681</v>
+        <v>0.03130745527173487</v>
       </c>
       <c r="C86">
-        <v>-0.03551454940955885</v>
+        <v>-0.04566576350793572</v>
       </c>
       <c r="D86">
-        <v>-0.0007523679341675083</v>
+        <v>0.003106023017304313</v>
       </c>
       <c r="E86">
-        <v>0.05062820644647788</v>
+        <v>-0.02906630118081957</v>
       </c>
       <c r="F86">
-        <v>-0.0122690781047647</v>
+        <v>0.05901512336621639</v>
       </c>
       <c r="G86">
-        <v>-0.02260709231663451</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.009312336611932783</v>
+      </c>
+      <c r="H86">
+        <v>-0.03828346241519921</v>
+      </c>
+      <c r="I86">
+        <v>-0.06527652649603233</v>
+      </c>
+      <c r="J86">
+        <v>0.02524840482007268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02891308901298658</v>
+        <v>0.03788509175320128</v>
       </c>
       <c r="C87">
-        <v>0.05828403773126683</v>
+        <v>0.02784972641591994</v>
       </c>
       <c r="D87">
-        <v>0.01070983622882395</v>
+        <v>0.005104775608040512</v>
       </c>
       <c r="E87">
-        <v>0.06093830088300843</v>
+        <v>-0.06767777109240745</v>
       </c>
       <c r="F87">
-        <v>0.04396795157188498</v>
+        <v>0.0672839515883704</v>
       </c>
       <c r="G87">
-        <v>0.1282436446031481</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.03042683405028044</v>
+      </c>
+      <c r="H87">
+        <v>0.008673630693994315</v>
+      </c>
+      <c r="I87">
+        <v>-0.002426824461006613</v>
+      </c>
+      <c r="J87">
+        <v>0.09269326739775538</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.04029261470104886</v>
+        <v>0.02540889980184798</v>
       </c>
       <c r="C88">
-        <v>-0.02087089286754564</v>
+        <v>-0.01741775107136639</v>
       </c>
       <c r="D88">
-        <v>0.003197245810833019</v>
+        <v>0.006710122603640866</v>
       </c>
       <c r="E88">
-        <v>0.0009427055001883836</v>
+        <v>0.01734040092086979</v>
       </c>
       <c r="F88">
-        <v>-0.009483792712109347</v>
+        <v>0.02139401244394738</v>
       </c>
       <c r="G88">
-        <v>-0.06224701079270738</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02404107024699743</v>
+      </c>
+      <c r="H88">
+        <v>-0.04902853610624051</v>
+      </c>
+      <c r="I88">
+        <v>0.01839029224554896</v>
+      </c>
+      <c r="J88">
+        <v>0.02835250594897201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01603454567152419</v>
+        <v>0.05452011415667108</v>
       </c>
       <c r="C89">
-        <v>0.4281047643845639</v>
+        <v>0.392992487806553</v>
       </c>
       <c r="D89">
-        <v>-0.09189303242304832</v>
+        <v>-0.02018521692520427</v>
       </c>
       <c r="E89">
-        <v>-0.04456306736104827</v>
+        <v>-0.05763732582674023</v>
       </c>
       <c r="F89">
-        <v>0.01868916385056398</v>
+        <v>-0.02630171642879534</v>
       </c>
       <c r="G89">
-        <v>-0.03057447529870633</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.07016481857169808</v>
+      </c>
+      <c r="H89">
+        <v>0.00304006921834656</v>
+      </c>
+      <c r="I89">
+        <v>-0.2978008253253071</v>
+      </c>
+      <c r="J89">
+        <v>-0.0649656338805024</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.01825965157101389</v>
+        <v>0.03349237943575443</v>
       </c>
       <c r="C90">
-        <v>0.3056433720350466</v>
+        <v>0.3279077186493901</v>
       </c>
       <c r="D90">
-        <v>-0.02082122587003829</v>
+        <v>-0.004949031966108385</v>
       </c>
       <c r="E90">
-        <v>0.02495312879405355</v>
+        <v>-0.0342724079478967</v>
       </c>
       <c r="F90">
-        <v>0.004509789769346534</v>
+        <v>0.007285807212932216</v>
       </c>
       <c r="G90">
-        <v>0.07453699018457706</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01746808629745896</v>
+      </c>
+      <c r="H90">
+        <v>0.05016246062064121</v>
+      </c>
+      <c r="I90">
+        <v>-0.2048587784843666</v>
+      </c>
+      <c r="J90">
+        <v>-0.03042091042941025</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3091850498806638</v>
+        <v>0.3157322476358341</v>
       </c>
       <c r="C91">
-        <v>-0.01985767230593661</v>
+        <v>-0.05192153484851205</v>
       </c>
       <c r="D91">
-        <v>0.08741374147100357</v>
+        <v>0.1021689492499386</v>
       </c>
       <c r="E91">
-        <v>-0.2551481287548081</v>
+        <v>0.2018952561288759</v>
       </c>
       <c r="F91">
-        <v>-0.1117513110205613</v>
+        <v>-0.1918679468456731</v>
       </c>
       <c r="G91">
-        <v>-0.1246531801958848</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.03034920693175724</v>
+      </c>
+      <c r="H91">
+        <v>0.006931212099060884</v>
+      </c>
+      <c r="I91">
+        <v>-0.01073368422851946</v>
+      </c>
+      <c r="J91">
+        <v>-0.3369634777166398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.03284408780885446</v>
+        <v>0.07458990320374195</v>
       </c>
       <c r="C92">
-        <v>0.4484133627806905</v>
+        <v>0.4708371262685075</v>
       </c>
       <c r="D92">
-        <v>-0.1876178747216481</v>
+        <v>-0.03899535398306259</v>
       </c>
       <c r="E92">
-        <v>-0.129004662526473</v>
+        <v>0.05049270718165414</v>
       </c>
       <c r="F92">
-        <v>-0.08861113645792668</v>
+        <v>-0.1390153083852137</v>
       </c>
       <c r="G92">
-        <v>-0.5306862955968417</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0214201490182856</v>
+      </c>
+      <c r="H92">
+        <v>-0.5843575524226688</v>
+      </c>
+      <c r="I92">
+        <v>0.6098298097050399</v>
+      </c>
+      <c r="J92">
+        <v>-0.004423628741907275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.02901037091079501</v>
+        <v>0.03434528768054512</v>
       </c>
       <c r="C93">
-        <v>0.3660999114804127</v>
+        <v>0.4063688310203775</v>
       </c>
       <c r="D93">
-        <v>-0.06475837841166197</v>
+        <v>-0.02366257448163181</v>
       </c>
       <c r="E93">
-        <v>-0.05758779144203331</v>
+        <v>-0.02279271480735479</v>
       </c>
       <c r="F93">
-        <v>-0.01828931728414033</v>
+        <v>-0.05839311612892348</v>
       </c>
       <c r="G93">
-        <v>-0.007341432875146573</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03825753446376976</v>
+      </c>
+      <c r="H93">
+        <v>0.04977099946436409</v>
+      </c>
+      <c r="I93">
+        <v>-0.2030959590356448</v>
+      </c>
+      <c r="J93">
+        <v>-0.05580290290643591</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.3048023317647292</v>
+        <v>0.3230395301254994</v>
       </c>
       <c r="C94">
-        <v>0.02448915971220375</v>
+        <v>-0.01845550714040224</v>
       </c>
       <c r="D94">
-        <v>0.1026314551565603</v>
+        <v>0.1680411116830847</v>
       </c>
       <c r="E94">
-        <v>-0.4374254331008467</v>
+        <v>0.2512325716594738</v>
       </c>
       <c r="F94">
-        <v>-0.4380078839159422</v>
+        <v>-0.308366372017862</v>
       </c>
       <c r="G94">
-        <v>0.1287536570279452</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2283808694291692</v>
+      </c>
+      <c r="H94">
+        <v>-0.03171496380227647</v>
+      </c>
+      <c r="I94">
+        <v>-0.2263670781914501</v>
+      </c>
+      <c r="J94">
+        <v>0.5290299027833595</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1988387296289763</v>
+        <v>0.1449109097638547</v>
       </c>
       <c r="C95">
-        <v>0.0382162497528402</v>
+        <v>-0.06628279546682285</v>
       </c>
       <c r="D95">
-        <v>0.02625130526607098</v>
+        <v>0.03734463510222292</v>
       </c>
       <c r="E95">
-        <v>-0.3701416927837534</v>
+        <v>-0.003124619253124889</v>
       </c>
       <c r="F95">
-        <v>0.8454493162953329</v>
+        <v>-0.08238177183644327</v>
       </c>
       <c r="G95">
-        <v>-0.05352380276292083</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9217055051651354</v>
+      </c>
+      <c r="H95">
+        <v>0.01470872023681069</v>
+      </c>
+      <c r="I95">
+        <v>0.001122711784055361</v>
+      </c>
+      <c r="J95">
+        <v>0.2548639235558877</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2129522658157141</v>
+        <v>0.2075663559916269</v>
       </c>
       <c r="C98">
-        <v>0.1334261442815526</v>
+        <v>0.07688751813382172</v>
       </c>
       <c r="D98">
-        <v>-0.0281557172888113</v>
+        <v>0.0009448809818613781</v>
       </c>
       <c r="E98">
-        <v>0.09349802260624317</v>
+        <v>-0.1751968955403863</v>
       </c>
       <c r="F98">
-        <v>0.02669313577222896</v>
+        <v>0.03206888642248634</v>
       </c>
       <c r="G98">
-        <v>0.2612476590552468</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.03847835484360502</v>
+      </c>
+      <c r="H98">
+        <v>0.2953548659693477</v>
+      </c>
+      <c r="I98">
+        <v>0.224086622179207</v>
+      </c>
+      <c r="J98">
+        <v>0.02970685035136744</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.01984960320449556</v>
+        <v>0.01277386717944098</v>
       </c>
       <c r="C101">
-        <v>-0.0170965061231333</v>
+        <v>-0.02948168297261563</v>
       </c>
       <c r="D101">
-        <v>0.0142102414894691</v>
+        <v>0.02194683575229649</v>
       </c>
       <c r="E101">
-        <v>0.04207229045242253</v>
+        <v>-0.03444180531807</v>
       </c>
       <c r="F101">
-        <v>0.01167343181821468</v>
+        <v>0.06333632346641964</v>
       </c>
       <c r="G101">
-        <v>-0.05041287312102891</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.01205954649451199</v>
+      </c>
+      <c r="H101">
+        <v>-0.1160647101859266</v>
+      </c>
+      <c r="I101">
+        <v>-0.01780721666250552</v>
+      </c>
+      <c r="J101">
+        <v>0.1049018956235652</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1203226157888519</v>
+        <v>0.1208363339417923</v>
       </c>
       <c r="C102">
-        <v>-0.003250875179291913</v>
+        <v>-0.03105521164414774</v>
       </c>
       <c r="D102">
-        <v>0.05251456561524109</v>
+        <v>0.05147973173141542</v>
       </c>
       <c r="E102">
-        <v>-0.07313447016624217</v>
+        <v>0.07550672502566748</v>
       </c>
       <c r="F102">
-        <v>0.01333378462857829</v>
+        <v>-0.04600102582729228</v>
       </c>
       <c r="G102">
-        <v>-0.01246176735188924</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.03092960829025455</v>
+      </c>
+      <c r="H102">
+        <v>-2.491708498653698e-05</v>
+      </c>
+      <c r="I102">
+        <v>-0.02491001752985128</v>
+      </c>
+      <c r="J102">
+        <v>-0.06901545876004743</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01599041016772007</v>
+        <v>0.02491154695719419</v>
       </c>
       <c r="C103">
-        <v>0.0005555636739765539</v>
+        <v>-0.00471675686853425</v>
       </c>
       <c r="D103">
-        <v>0.01736891426253144</v>
+        <v>0.01641126369745273</v>
       </c>
       <c r="E103">
-        <v>-0.02632846591663509</v>
+        <v>0.02902719389670049</v>
       </c>
       <c r="F103">
-        <v>-0.01339310174957562</v>
+        <v>-0.002026055488635991</v>
       </c>
       <c r="G103">
-        <v>0.009890741134168246</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01512247327189001</v>
+      </c>
+      <c r="H103">
+        <v>-0.0005759513252928337</v>
+      </c>
+      <c r="I103">
+        <v>-0.02454140969681142</v>
+      </c>
+      <c r="J103">
+        <v>-0.005203069681835002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
